--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C03CB-3E1A-4368-A9E9-9160D7ABF5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F99EE8-BB55-4AC4-AD74-6EE009B40EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2544,10 +2544,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2c0717h08,S2c0717h13,S2c0717h18,S2d0731h11,S2e0803h08,S2e0803h14,S2g0825h09,S2g0825h11,S2h0908h07,S2h0908h16,S2i0912h07,S2j1013h16,S3k1103h14,S3l1118h11,S3l1118h18,S3m1128h14,S3m1128h18,S3n1129h10,S3o1225h13,S3p1228h09,S3p1228h12,S1b0130h17,S2c0717h07,S2c0717h14,S2f0808h15,S2g0825h07,S2h0908h12,S2h0908h13,S2j1013h09,S2j1013h15,S3k1103h11,S3l1118h15,S3l1118h16,S3m1128h17,S1b0130h11,S2d0731h16,S2f0808h10,S2h0908h17,S3l1118h09,S3p1228h14,S2aH2,S2c0717h09,S2d0731h14,S2e0803h07,S2e0803h12,S2f0808h07,S2f0808h13,S2g0825h08,S2g0825h15,S2h0908h14,S2i0912h09,S2i0912h10,S2j1013h13,S3n1129h13,S3o1225h11,S3o1225h12,S3o1225h17,S2c0717h12,S2c0717h15,S2f0808h14,S2j1013h08,S2j1013h18,S3k1103h13,S3m1128h11,S3m1128h13,S3n1129h16,S3n1129h17,S3p1228h07,S2c0717h16,S2c0717h17,S3k1103h10,S3n1129h11,S3n1129h15,S3o1225h07,S3p1228h10,S1b0130h10,S2c0717h10,S2d0731h08,S2e0803h10,S3l1118h07,S3l1118h08,S3l1118h10,S3l1118h13,S3m1128h08,S3m1128h15,S3p1228h13,S1b0130h14,S1b0130h16,S2d0731h12,S2e0803h17,S2f0808h09,S2g0825h16,S2i0912h12,S2i0912h17,S3k1103h12,S3l1118h17,S3n1129h09,S3o1225h09,S2c0717h11,S2f0808h08,S2g0825h17,S2g0825h18,S2h0908h10,S2j1013h10,S2j1013h17,S3l1118h12,S3o1225h08,S3o1225h10,S1b0130h12,S1b0130h13,S2d0731h09,S2e0803h11,S2g0825h14,S2h0908h08,S2h0908h11,S2i0912h08,S2i0912h13,S2j1013h07,S3k1103h15,S3k1103h17,S3n1129h12,S3o1225h16,S3p1228h17,S1aH2,S1b0130h07,S2d0731h15,S2e0803h15,S2e0803h18,S2i0912h11,S3k1103h08,S3k1103h16,S3m1128h09,S3n1129h14,S1b0130h15,S2d0731h17,S2e0803h09,S2g0825h13,S3k1103h09,S3k1103h18,S3p1228h18,S2d0731h10,S2e0803h16,S2f0808h17,S2f0808h18,S2g0825h12,S3l1118h14,S3m1128h12,S3n1129h07,S3p1228h11,S1b0130h18,S2d0731h13,S2e0803h13,S2h0908h09,S2h0908h18,S2i0912h18,S2j1013h11,S3k1103h07,S1b0130h08,S2f0808h12,S2f0808h16,S2g0825h10,S3aH2,S3m1128h10,S3m1128h16,S3o1225h18,S3p1228h08,S3p1228h15,S1b0130h09,S2d0731h07,S2d0731h18,S2f0808h11,S2h0908h15,S2i0912h14,S2i0912h15,S2i0912h16,S2j1013h12,S2j1013h14,S3m1128h07,S3n1129h08,S3n1129h18,S3o1225h14,S3o1225h15,S3p1228h16</t>
-  </si>
-  <si>
-    <t>S1b0130h22,S2aH1,S2c0717h04,S2f0808h22,S2h0908h23,S2i0912h24,S3k1103h05,S3m1128h24,S3n1129h02,S3n1129h05,S1b0130h01,S1b0130h05,S2d0731h01,S2d0731h02,S2g0825h22,S2h0908h04,S2j1013h01,S3k1103h01,S3k1103h23,S3p1228h06,S2c0717h22,S2e0803h02,S2e0803h22,S2f0808h01,S2f0808h02,S2f0808h19,S2h0908h05,S2i0912h06,S2j1013h02,S3k1103h04,S3n1129h03,S3p1228h19,S2e0803h04,S2e0803h21,S2f0808h06,S2f0808h23,S2g0825h21,S3aH3,S3k1103h02,S3k1103h06,S3m1128h01,S3o1225h04,S2aH3,S2c0717h02,S2c0717h21,S2d0731h19,S2e0803h03,S2f0808h03,S2g0825h20,S2j1013h05,S2j1013h20,S3k1103h21,S3k1103h24,S3l1118h04,S3l1118h23,S3o1225h02,S3o1225h19,S3o1225h23,S3o1225h24,S3p1228h03,S3p1228h04,S3p1228h21,S2e0803h01,S2f0808h24,S2h0908h02,S2h0908h24,S2i0912h01,S2i0912h03,S3l1118h05,S3l1118h19,S3l1118h24,S3m1128h23,S1b0130h03,S1b0130h24,S2c0717h23,S2g0825h01,S3p1228h24,S2d0731h23,S2g0825h03,S2j1013h22,S3k1103h03,S3n1129h01,S3n1129h19,S3o1225h20,S3p1228h05,S3p1228h20,S2d0731h20,S2d0731h24,S2g0825h05,S2g0825h23,S3l1118h21,S3m1128h19,S3m1128h20,S3m1128h22,S3n1129h04,S3n1129h23,S3n1129h24,S3p1228h01,S1aH1,S2c0717h03,S2c0717h20,S2d0731h06,S2e0803h19,S2e0803h20,S2h0908h19,S2h0908h22,S2i0912h05,S2i0912h21,S2j1013h03,S3l1118h06,S3m1128h02,S1aH3,S1b0130h20,S2c0717h06,S2e0803h06,S2e0803h23,S2f0808h21,S2g0825h04,S2g0825h06,S2g0825h24,S2h0908h01,S2h0908h06,S2h0908h21,S2i0912h02,S3k1103h20,S3k1103h22,S3n1129h20,S3n1129h21,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2e0803h05,S2g0825h02,S2i0912h04,S2i0912h19,S2j1013h04,S2j1013h24,S3l1118h01,S3m1128h03,S3m1128h05,S3m1128h06,S3o1225h21,S3o1225h22,S1b0130h21,S2g0825h19,S2h0908h20,S2i0912h20,S2i0912h23,S2j1013h06,S2j1013h21,S2j1013h23,S3l1118h22,S3m1128h04,S3n1129h22,S3o1225h06,S3p1228h22,S2f0808h05,S2f0808h20,S3k1103h19,S3l1118h20,S3o1225h03,S3p1228h23,S1b0130h23,S2c0717h05,S2c0717h24,S2d0731h21,S2e0803h24,S2h0908h03,S2i0912h22,S2j1013h19,S3l1118h02,S3n1129h06,S3o1225h01,S3o1225h05,S3p1228h02,S1b0130h02,S1b0130h06,S2d0731h03,S2d0731h04,S2d0731h05,S2d0731h22,S2f0808h04,S3aH1,S3l1118h03,S3m1128h21</t>
+    <t>S2c0717h08,S2c0717h13,S2c0717h18,S2d0731h11,S2e0803h08,S2e0803h14,S2g0825h09,S2g0825h11,S2h0908h07,S2h0908h16,S2i0912h07,S2j1013h16,S3k1103h14,S3l1118h11,S3l1118h18,S3m1128h14,S3m1128h18,S3n1129h10,S3o1225h13,S3p1228h09,S3p1228h12,S1b0130h15,S2d0731h17,S2e0803h09,S2g0825h13,S3k1103h09,S3k1103h18,S3p1228h18,S1b0130h08,S2f0808h12,S2f0808h16,S2g0825h10,S3aH2,S3m1128h10,S3m1128h16,S3o1225h18,S3p1228h08,S3p1228h15,S1b0130h09,S2d0731h07,S2d0731h18,S2f0808h11,S2h0908h15,S2i0912h14,S2i0912h15,S2i0912h16,S2j1013h12,S2j1013h14,S3m1128h07,S3n1129h08,S3n1129h18,S3o1225h14,S3o1225h15,S3p1228h16,S1b0130h17,S2c0717h07,S2c0717h14,S2f0808h15,S2g0825h07,S2h0908h12,S2h0908h13,S2j1013h09,S2j1013h15,S3k1103h11,S3l1118h15,S3l1118h16,S3m1128h17,S1b0130h18,S2d0731h13,S2e0803h13,S2h0908h09,S2h0908h18,S2i0912h18,S2j1013h11,S3k1103h07,S2c0717h11,S2f0808h08,S2g0825h17,S2g0825h18,S2h0908h10,S2j1013h10,S2j1013h17,S3l1118h12,S3o1225h08,S3o1225h10,S2aH2,S2c0717h09,S2d0731h14,S2e0803h07,S2e0803h12,S2f0808h07,S2f0808h13,S2g0825h08,S2g0825h15,S2h0908h14,S2i0912h09,S2i0912h10,S2j1013h13,S3n1129h13,S3o1225h11,S3o1225h12,S3o1225h17,S2d0731h10,S2e0803h16,S2f0808h17,S2f0808h18,S2g0825h12,S3l1118h14,S3m1128h12,S3n1129h07,S3p1228h11,S1b0130h10,S2c0717h10,S2d0731h08,S2e0803h10,S3l1118h07,S3l1118h08,S3l1118h10,S3l1118h13,S3m1128h08,S3m1128h15,S3p1228h13,S2c0717h12,S2c0717h15,S2f0808h14,S2j1013h08,S2j1013h18,S3k1103h13,S3m1128h11,S3m1128h13,S3n1129h16,S3n1129h17,S3p1228h07,S1b0130h11,S2d0731h16,S2f0808h10,S2h0908h17,S3l1118h09,S3p1228h14,S1b0130h14,S1b0130h16,S2d0731h12,S2e0803h17,S2f0808h09,S2g0825h16,S2i0912h12,S2i0912h17,S3k1103h12,S3l1118h17,S3n1129h09,S3o1225h09,S1aH2,S1b0130h07,S2d0731h15,S2e0803h15,S2e0803h18,S2i0912h11,S3k1103h08,S3k1103h16,S3m1128h09,S3n1129h14,S1b0130h12,S1b0130h13,S2d0731h09,S2e0803h11,S2g0825h14,S2h0908h08,S2h0908h11,S2i0912h08,S2i0912h13,S2j1013h07,S3k1103h15,S3k1103h17,S3n1129h12,S3o1225h16,S3p1228h17,S2c0717h16,S2c0717h17,S3k1103h10,S3n1129h11,S3n1129h15,S3o1225h07,S3p1228h10</t>
+  </si>
+  <si>
+    <t>S1b0130h22,S2aH1,S2c0717h04,S2f0808h22,S2h0908h23,S2i0912h24,S3k1103h05,S3m1128h24,S3n1129h02,S3n1129h05,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2e0803h05,S2g0825h02,S2i0912h04,S2i0912h19,S2j1013h04,S2j1013h24,S3l1118h01,S3m1128h03,S3m1128h05,S3m1128h06,S3o1225h21,S3o1225h22,S1b0130h23,S2c0717h05,S2c0717h24,S2d0731h21,S2e0803h24,S2h0908h03,S2i0912h22,S2j1013h19,S3l1118h02,S3n1129h06,S3o1225h01,S3o1225h05,S3p1228h02,S1b0130h02,S1b0130h06,S2d0731h03,S2d0731h04,S2d0731h05,S2d0731h22,S2f0808h04,S3aH1,S3l1118h03,S3m1128h21,S1b0130h01,S1b0130h05,S2d0731h01,S2d0731h02,S2g0825h22,S2h0908h04,S2j1013h01,S3k1103h01,S3k1103h23,S3p1228h06,S2f0808h05,S2f0808h20,S3k1103h19,S3l1118h20,S3o1225h03,S3p1228h23,S2d0731h20,S2d0731h24,S2g0825h05,S2g0825h23,S3l1118h21,S3m1128h19,S3m1128h20,S3m1128h22,S3n1129h04,S3n1129h23,S3n1129h24,S3p1228h01,S2e0803h04,S2e0803h21,S2f0808h06,S2f0808h23,S2g0825h21,S3aH3,S3k1103h02,S3k1103h06,S3m1128h01,S3o1225h04,S1b0130h21,S2g0825h19,S2h0908h20,S2i0912h20,S2i0912h23,S2j1013h06,S2j1013h21,S2j1013h23,S3l1118h22,S3m1128h04,S3n1129h22,S3o1225h06,S3p1228h22,S1b0130h03,S1b0130h24,S2c0717h23,S2g0825h01,S3p1228h24,S2aH3,S2c0717h02,S2c0717h21,S2d0731h19,S2e0803h03,S2f0808h03,S2g0825h20,S2j1013h05,S2j1013h20,S3k1103h21,S3k1103h24,S3l1118h04,S3l1118h23,S3o1225h02,S3o1225h19,S3o1225h23,S3o1225h24,S3p1228h03,S3p1228h04,S3p1228h21,S2c0717h22,S2e0803h02,S2e0803h22,S2f0808h01,S2f0808h02,S2f0808h19,S2h0908h05,S2i0912h06,S2j1013h02,S3k1103h04,S3n1129h03,S3p1228h19,S2d0731h23,S2g0825h03,S2j1013h22,S3k1103h03,S3n1129h01,S3n1129h19,S3o1225h20,S3p1228h05,S3p1228h20,S1aH3,S1b0130h20,S2c0717h06,S2e0803h06,S2e0803h23,S2f0808h21,S2g0825h04,S2g0825h06,S2g0825h24,S2h0908h01,S2h0908h06,S2h0908h21,S2i0912h02,S3k1103h20,S3k1103h22,S3n1129h20,S3n1129h21,S1aH1,S2c0717h03,S2c0717h20,S2d0731h06,S2e0803h19,S2e0803h20,S2h0908h19,S2h0908h22,S2i0912h05,S2i0912h21,S2j1013h03,S3l1118h06,S3m1128h02,S2e0803h01,S2f0808h24,S2h0908h02,S2h0908h24,S2i0912h01,S2i0912h03,S3l1118h05,S3l1118h19,S3l1118h24,S3m1128h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0130h22,S2aH1,S2c0717h04,S2f0808h22,S2h0908h23,S2i0912h24,S3k1103h05,S3m1128h24,S3n1129h02,S3n1129h05,S1b0130h01,S1b0130h05,S2d0731h01,S2d0731h02,S2g0825h22,S2h0908h04,S2j1013h01,S3k1103h01,S3k1103h23,S3p1228h06,S2c0717h22,S2e0803h02,S2e0803h22,S2f0808h01,S2f0808h02,S2f0808h19,S2h0908h05,S2i0912h06,S2j1013h02,S3k1103h04,S3n1129h03,S3p1228h19,S2e0803h04,S2e0803h21,S2f0808h06,S2f0808h23,S2g0825h21,S3aH3,S3k1103h02,S3k1103h06,S3m1128h01,S3o1225h04,S2aH3,S2c0717h02,S2c0717h21,S2d0731h19,S2e0803h03,S2f0808h03,S2g0825h20,S2j1013h05,S2j1013h20,S3k1103h21,S3k1103h24,S3l1118h04,S3l1118h23,S3o1225h02,S3o1225h19,S3o1225h23,S3o1225h24,S3p1228h03,S3p1228h04,S3p1228h21,S2e0803h01,S2f0808h24,S2h0908h02,S2h0908h24,S2i0912h01,S2i0912h03,S3l1118h05,S3l1118h19,S3l1118h24,S3m1128h23,S1b0130h03,S1b0130h24,S2c0717h23,S2g0825h01,S3p1228h24,S2d0731h23,S2g0825h03,S2j1013h22,S3k1103h03,S3n1129h01,S3n1129h19,S3o1225h20,S3p1228h05,S3p1228h20,S2d0731h20,S2d0731h24,S2g0825h05,S2g0825h23,S3l1118h21,S3m1128h19,S3m1128h20,S3m1128h22,S3n1129h04,S3n1129h23,S3n1129h24,S3p1228h01,S1aH1,S2c0717h03,S2c0717h20,S2d0731h06,S2e0803h19,S2e0803h20,S2h0908h19,S2h0908h22,S2i0912h05,S2i0912h21,S2j1013h03,S3l1118h06,S3m1128h02,S1aH3,S1b0130h20,S2c0717h06,S2e0803h06,S2e0803h23,S2f0808h21,S2g0825h04,S2g0825h06,S2g0825h24,S2h0908h01,S2h0908h06,S2h0908h21,S2i0912h02,S3k1103h20,S3k1103h22,S3n1129h20,S3n1129h21,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2e0803h05,S2g0825h02,S2i0912h04,S2i0912h19,S2j1013h04,S2j1013h24,S3l1118h01,S3m1128h03,S3m1128h05,S3m1128h06,S3o1225h21,S3o1225h22,S1b0130h21,S2g0825h19,S2h0908h20,S2i0912h20,S2i0912h23,S2j1013h06,S2j1013h21,S2j1013h23,S3l1118h22,S3m1128h04,S3n1129h22,S3o1225h06,S3p1228h22,S2f0808h05,S2f0808h20,S3k1103h19,S3l1118h20,S3o1225h03,S3p1228h23,S1b0130h23,S2c0717h05,S2c0717h24,S2d0731h21,S2e0803h24,S2h0908h03,S2i0912h22,S2j1013h19,S3l1118h02,S3n1129h06,S3o1225h01,S3o1225h05,S3p1228h02,S1b0130h02,S1b0130h06,S2d0731h03,S2d0731h04,S2d0731h05,S2d0731h22,S2f0808h04,S3aH1,S3l1118h03,S3m1128h21</v>
+        <v>S1b0130h22,S2aH1,S2c0717h04,S2f0808h22,S2h0908h23,S2i0912h24,S3k1103h05,S3m1128h24,S3n1129h02,S3n1129h05,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2e0803h05,S2g0825h02,S2i0912h04,S2i0912h19,S2j1013h04,S2j1013h24,S3l1118h01,S3m1128h03,S3m1128h05,S3m1128h06,S3o1225h21,S3o1225h22,S1b0130h23,S2c0717h05,S2c0717h24,S2d0731h21,S2e0803h24,S2h0908h03,S2i0912h22,S2j1013h19,S3l1118h02,S3n1129h06,S3o1225h01,S3o1225h05,S3p1228h02,S1b0130h02,S1b0130h06,S2d0731h03,S2d0731h04,S2d0731h05,S2d0731h22,S2f0808h04,S3aH1,S3l1118h03,S3m1128h21,S1b0130h01,S1b0130h05,S2d0731h01,S2d0731h02,S2g0825h22,S2h0908h04,S2j1013h01,S3k1103h01,S3k1103h23,S3p1228h06,S2f0808h05,S2f0808h20,S3k1103h19,S3l1118h20,S3o1225h03,S3p1228h23,S2d0731h20,S2d0731h24,S2g0825h05,S2g0825h23,S3l1118h21,S3m1128h19,S3m1128h20,S3m1128h22,S3n1129h04,S3n1129h23,S3n1129h24,S3p1228h01,S2e0803h04,S2e0803h21,S2f0808h06,S2f0808h23,S2g0825h21,S3aH3,S3k1103h02,S3k1103h06,S3m1128h01,S3o1225h04,S1b0130h21,S2g0825h19,S2h0908h20,S2i0912h20,S2i0912h23,S2j1013h06,S2j1013h21,S2j1013h23,S3l1118h22,S3m1128h04,S3n1129h22,S3o1225h06,S3p1228h22,S1b0130h03,S1b0130h24,S2c0717h23,S2g0825h01,S3p1228h24,S2aH3,S2c0717h02,S2c0717h21,S2d0731h19,S2e0803h03,S2f0808h03,S2g0825h20,S2j1013h05,S2j1013h20,S3k1103h21,S3k1103h24,S3l1118h04,S3l1118h23,S3o1225h02,S3o1225h19,S3o1225h23,S3o1225h24,S3p1228h03,S3p1228h04,S3p1228h21,S2c0717h22,S2e0803h02,S2e0803h22,S2f0808h01,S2f0808h02,S2f0808h19,S2h0908h05,S2i0912h06,S2j1013h02,S3k1103h04,S3n1129h03,S3p1228h19,S2d0731h23,S2g0825h03,S2j1013h22,S3k1103h03,S3n1129h01,S3n1129h19,S3o1225h20,S3p1228h05,S3p1228h20,S1aH3,S1b0130h20,S2c0717h06,S2e0803h06,S2e0803h23,S2f0808h21,S2g0825h04,S2g0825h06,S2g0825h24,S2h0908h01,S2h0908h06,S2h0908h21,S2i0912h02,S3k1103h20,S3k1103h22,S3n1129h20,S3n1129h21,S1aH1,S2c0717h03,S2c0717h20,S2d0731h06,S2e0803h19,S2e0803h20,S2h0908h19,S2h0908h22,S2i0912h05,S2i0912h21,S2j1013h03,S3l1118h06,S3m1128h02,S2e0803h01,S2f0808h24,S2h0908h02,S2h0908h24,S2i0912h01,S2i0912h03,S3l1118h05,S3l1118h19,S3l1118h24,S3m1128h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2c0717h08,S2c0717h13,S2c0717h18,S2d0731h11,S2e0803h08,S2e0803h14,S2g0825h09,S2g0825h11,S2h0908h07,S2h0908h16,S2i0912h07,S2j1013h16,S3k1103h14,S3l1118h11,S3l1118h18,S3m1128h14,S3m1128h18,S3n1129h10,S3o1225h13,S3p1228h09,S3p1228h12,S1b0130h17,S2c0717h07,S2c0717h14,S2f0808h15,S2g0825h07,S2h0908h12,S2h0908h13,S2j1013h09,S2j1013h15,S3k1103h11,S3l1118h15,S3l1118h16,S3m1128h17,S1b0130h11,S2d0731h16,S2f0808h10,S2h0908h17,S3l1118h09,S3p1228h14,S2aH2,S2c0717h09,S2d0731h14,S2e0803h07,S2e0803h12,S2f0808h07,S2f0808h13,S2g0825h08,S2g0825h15,S2h0908h14,S2i0912h09,S2i0912h10,S2j1013h13,S3n1129h13,S3o1225h11,S3o1225h12,S3o1225h17,S2c0717h12,S2c0717h15,S2f0808h14,S2j1013h08,S2j1013h18,S3k1103h13,S3m1128h11,S3m1128h13,S3n1129h16,S3n1129h17,S3p1228h07,S2c0717h16,S2c0717h17,S3k1103h10,S3n1129h11,S3n1129h15,S3o1225h07,S3p1228h10,S1b0130h10,S2c0717h10,S2d0731h08,S2e0803h10,S3l1118h07,S3l1118h08,S3l1118h10,S3l1118h13,S3m1128h08,S3m1128h15,S3p1228h13,S1b0130h14,S1b0130h16,S2d0731h12,S2e0803h17,S2f0808h09,S2g0825h16,S2i0912h12,S2i0912h17,S3k1103h12,S3l1118h17,S3n1129h09,S3o1225h09,S2c0717h11,S2f0808h08,S2g0825h17,S2g0825h18,S2h0908h10,S2j1013h10,S2j1013h17,S3l1118h12,S3o1225h08,S3o1225h10,S1b0130h12,S1b0130h13,S2d0731h09,S2e0803h11,S2g0825h14,S2h0908h08,S2h0908h11,S2i0912h08,S2i0912h13,S2j1013h07,S3k1103h15,S3k1103h17,S3n1129h12,S3o1225h16,S3p1228h17,S1aH2,S1b0130h07,S2d0731h15,S2e0803h15,S2e0803h18,S2i0912h11,S3k1103h08,S3k1103h16,S3m1128h09,S3n1129h14,S1b0130h15,S2d0731h17,S2e0803h09,S2g0825h13,S3k1103h09,S3k1103h18,S3p1228h18,S2d0731h10,S2e0803h16,S2f0808h17,S2f0808h18,S2g0825h12,S3l1118h14,S3m1128h12,S3n1129h07,S3p1228h11,S1b0130h18,S2d0731h13,S2e0803h13,S2h0908h09,S2h0908h18,S2i0912h18,S2j1013h11,S3k1103h07,S1b0130h08,S2f0808h12,S2f0808h16,S2g0825h10,S3aH2,S3m1128h10,S3m1128h16,S3o1225h18,S3p1228h08,S3p1228h15,S1b0130h09,S2d0731h07,S2d0731h18,S2f0808h11,S2h0908h15,S2i0912h14,S2i0912h15,S2i0912h16,S2j1013h12,S2j1013h14,S3m1128h07,S3n1129h08,S3n1129h18,S3o1225h14,S3o1225h15,S3p1228h16</v>
+        <v>S2c0717h08,S2c0717h13,S2c0717h18,S2d0731h11,S2e0803h08,S2e0803h14,S2g0825h09,S2g0825h11,S2h0908h07,S2h0908h16,S2i0912h07,S2j1013h16,S3k1103h14,S3l1118h11,S3l1118h18,S3m1128h14,S3m1128h18,S3n1129h10,S3o1225h13,S3p1228h09,S3p1228h12,S1b0130h15,S2d0731h17,S2e0803h09,S2g0825h13,S3k1103h09,S3k1103h18,S3p1228h18,S1b0130h08,S2f0808h12,S2f0808h16,S2g0825h10,S3aH2,S3m1128h10,S3m1128h16,S3o1225h18,S3p1228h08,S3p1228h15,S1b0130h09,S2d0731h07,S2d0731h18,S2f0808h11,S2h0908h15,S2i0912h14,S2i0912h15,S2i0912h16,S2j1013h12,S2j1013h14,S3m1128h07,S3n1129h08,S3n1129h18,S3o1225h14,S3o1225h15,S3p1228h16,S1b0130h17,S2c0717h07,S2c0717h14,S2f0808h15,S2g0825h07,S2h0908h12,S2h0908h13,S2j1013h09,S2j1013h15,S3k1103h11,S3l1118h15,S3l1118h16,S3m1128h17,S1b0130h18,S2d0731h13,S2e0803h13,S2h0908h09,S2h0908h18,S2i0912h18,S2j1013h11,S3k1103h07,S2c0717h11,S2f0808h08,S2g0825h17,S2g0825h18,S2h0908h10,S2j1013h10,S2j1013h17,S3l1118h12,S3o1225h08,S3o1225h10,S2aH2,S2c0717h09,S2d0731h14,S2e0803h07,S2e0803h12,S2f0808h07,S2f0808h13,S2g0825h08,S2g0825h15,S2h0908h14,S2i0912h09,S2i0912h10,S2j1013h13,S3n1129h13,S3o1225h11,S3o1225h12,S3o1225h17,S2d0731h10,S2e0803h16,S2f0808h17,S2f0808h18,S2g0825h12,S3l1118h14,S3m1128h12,S3n1129h07,S3p1228h11,S1b0130h10,S2c0717h10,S2d0731h08,S2e0803h10,S3l1118h07,S3l1118h08,S3l1118h10,S3l1118h13,S3m1128h08,S3m1128h15,S3p1228h13,S2c0717h12,S2c0717h15,S2f0808h14,S2j1013h08,S2j1013h18,S3k1103h13,S3m1128h11,S3m1128h13,S3n1129h16,S3n1129h17,S3p1228h07,S1b0130h11,S2d0731h16,S2f0808h10,S2h0908h17,S3l1118h09,S3p1228h14,S1b0130h14,S1b0130h16,S2d0731h12,S2e0803h17,S2f0808h09,S2g0825h16,S2i0912h12,S2i0912h17,S3k1103h12,S3l1118h17,S3n1129h09,S3o1225h09,S1aH2,S1b0130h07,S2d0731h15,S2e0803h15,S2e0803h18,S2i0912h11,S3k1103h08,S3k1103h16,S3m1128h09,S3n1129h14,S1b0130h12,S1b0130h13,S2d0731h09,S2e0803h11,S2g0825h14,S2h0908h08,S2h0908h11,S2i0912h08,S2i0912h13,S2j1013h07,S3k1103h15,S3k1103h17,S3n1129h12,S3o1225h16,S3p1228h17,S2c0717h16,S2c0717h17,S3k1103h10,S3n1129h11,S3n1129h15,S3o1225h07,S3p1228h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3764,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10200D11-B730-457E-9C74-686D78723042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA085576-6E65-4136-AF07-3DE7686361B6}">
   <dimension ref="B2:F366"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6808,7 +6808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9C4061-4C30-4184-AAC6-ABEA007A58A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E26045-A546-4B86-8608-F5CFF081D259}">
   <dimension ref="B2:O372"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6890,7 +6890,7 @@
         <v>81</v>
       </c>
       <c r="N4">
-        <v>0.18498107227748917</v>
+        <v>0.18498107227748919</v>
       </c>
       <c r="O4" t="s">
         <v>841</v>
@@ -6925,7 +6925,7 @@
         <v>75</v>
       </c>
       <c r="N5">
-        <v>0.41729025442380491</v>
+        <v>0.41729025442380496</v>
       </c>
       <c r="O5" t="s">
         <v>841</v>
@@ -6960,7 +6960,7 @@
         <v>79</v>
       </c>
       <c r="N6">
-        <v>0.59772867329870571</v>
+        <v>0.59772867329870583</v>
       </c>
       <c r="O6" t="s">
         <v>841</v>
@@ -16488,7 +16488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1862708-C9B9-425C-AF21-193E0888A583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE63A2-39E8-46A7-87EB-74590E4D159A}">
   <dimension ref="B2:O741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
